--- a/salesforce/Exam Percentages Sept 2018.xlsx
+++ b/salesforce/Exam Percentages Sept 2018.xlsx
@@ -1,22 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_GitRepos\Rzum\salesforce\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F279775-A5FC-4E3C-A41E-63ACF101D067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="326" yWindow="41" windowWidth="25349" windowHeight="12444"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Identity Management Concepts</t>
   </si>
@@ -91,13 +105,43 @@
   </si>
   <si>
     <t>Short by</t>
+  </si>
+  <si>
+    <t>Section-Level Scoring:</t>
+  </si>
+  <si>
+    <t>Salesforce Fundamentals: 100%</t>
+  </si>
+  <si>
+    <t>Data Modeling and Management: 75%</t>
+  </si>
+  <si>
+    <t>Logic and Process Automation: 83%</t>
+  </si>
+  <si>
+    <t>User Interface: 50%</t>
+  </si>
+  <si>
+    <t>Performance: 80%</t>
+  </si>
+  <si>
+    <t>Integration: 87%</t>
+  </si>
+  <si>
+    <t>Testing: 87%</t>
+  </si>
+  <si>
+    <t>Debug and Deployment Tools: 66%</t>
+  </si>
+  <si>
+    <t>Platform Developer II - May 2021</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +172,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,13 +226,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -186,6 +245,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,7 +296,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +329,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,6 +381,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,29 +573,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.05" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="16.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
@@ -510,7 +606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
@@ -518,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +629,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -548,7 +644,7 @@
         <v>11.13</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -563,7 +659,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,7 +674,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -593,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -611,7 +707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F10" s="3">
         <f>SUM(F4:F9)</f>
         <v>100</v>
@@ -625,12 +721,12 @@
         <v>9.1900000000000048</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -641,7 +737,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F15" s="1" t="s">
         <v>6</v>
       </c>
@@ -649,7 +745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
@@ -664,7 +760,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
@@ -679,7 +775,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>18</v>
       </c>
@@ -694,7 +790,7 @@
         <v>11.55</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
@@ -709,7 +805,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
@@ -724,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
@@ -739,7 +835,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>13</v>
       </c>
@@ -754,7 +850,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -769,7 +865,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
@@ -784,7 +880,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>16</v>
       </c>
@@ -802,7 +898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="F26" s="3">
         <f>SUM(F16:F25)</f>
         <v>100</v>
@@ -816,35 +912,161 @@
         <v>4.9500000000000099</v>
       </c>
     </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="8"/>
+      <c r="I29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5</v>
+      </c>
+      <c r="G31" s="1">
+        <v>100</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:H38" si="2">G31*F31/100</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="1">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B33" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="1">
+        <v>20</v>
+      </c>
+      <c r="G33" s="1">
+        <v>83</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="2"/>
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1">
+        <v>19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>50</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1">
+        <v>16</v>
+      </c>
+      <c r="G35" s="1">
+        <v>80</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="2"/>
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="1">
+        <v>15</v>
+      </c>
+      <c r="G36" s="1">
+        <v>87</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="2"/>
+        <v>13.05</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="1">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1">
+        <v>87</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="2"/>
+        <v>12.18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5</v>
+      </c>
+      <c r="G38" s="1">
+        <v>66</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="H39" s="7">
+        <f>SUM(H31:H38)</f>
+        <v>76.929999999999993</v>
+      </c>
+      <c r="J39" s="4"/>
+    </row>
   </sheetData>
-  <sortState ref="B19:H28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B19:H28">
     <sortCondition descending="1" ref="F19:F28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>